--- a/CumulativeTestsByTypeByCounty/2021-03-31.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-03-31.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>50792</v>
+        <v>50992</v>
       </c>
       <c r="C2" s="4">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="D2" s="4">
-        <v>7047</v>
+        <v>7084</v>
       </c>
       <c r="E2" s="4">
-        <v>59298</v>
+        <v>59538</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>4103</v>
+        <v>4109</v>
       </c>
       <c r="C3" s="4">
         <v>222</v>
       </c>
       <c r="D3" s="4">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="E3" s="4">
-        <v>6673</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>54080</v>
+        <v>54161</v>
       </c>
       <c r="C4" s="4">
         <v>1560</v>
       </c>
       <c r="D4" s="4">
-        <v>23640</v>
+        <v>23705</v>
       </c>
       <c r="E4" s="4">
-        <v>79280</v>
+        <v>79426</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>7374</v>
+        <v>7410</v>
       </c>
       <c r="C5" s="4">
-        <v>2204</v>
+        <v>2211</v>
       </c>
       <c r="D5" s="4">
-        <v>5354</v>
+        <v>5385</v>
       </c>
       <c r="E5" s="4">
-        <v>14932</v>
+        <v>15006</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2861</v>
+        <v>2868</v>
       </c>
       <c r="C6" s="4">
         <v>480</v>
       </c>
       <c r="D6" s="4">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E6" s="4">
-        <v>3836</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C7" s="4">
         <v>241</v>
       </c>
       <c r="D7" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E7" s="4">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>49796</v>
+        <v>50960</v>
       </c>
       <c r="C8" s="4">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="D8" s="4">
-        <v>4478</v>
+        <v>4510</v>
       </c>
       <c r="E8" s="4">
-        <v>55403</v>
+        <v>56606</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>17217</v>
+        <v>17258</v>
       </c>
       <c r="C9" s="4">
         <v>471</v>
       </c>
       <c r="D9" s="4">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="E9" s="4">
-        <v>19001</v>
+        <v>19047</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C10" s="4">
         <v>60</v>
       </c>
       <c r="D10" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E10" s="4">
-        <v>2342</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>7657</v>
+        <v>7682</v>
       </c>
       <c r="C11" s="4">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D11" s="4">
-        <v>3466</v>
+        <v>3484</v>
       </c>
       <c r="E11" s="4">
-        <v>11636</v>
+        <v>11683</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>49034</v>
+        <v>49287</v>
       </c>
       <c r="C12" s="4">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D12" s="4">
-        <v>16254</v>
+        <v>16371</v>
       </c>
       <c r="E12" s="4">
-        <v>66427</v>
+        <v>66798</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1264,10 +1264,10 @@
         <v>157</v>
       </c>
       <c r="D13" s="4">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E13" s="4">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>30782</v>
+        <v>30859</v>
       </c>
       <c r="C14" s="4">
-        <v>5307</v>
+        <v>5315</v>
       </c>
       <c r="D14" s="4">
-        <v>6937</v>
+        <v>7042</v>
       </c>
       <c r="E14" s="4">
-        <v>43026</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>231939</v>
+        <v>232554</v>
       </c>
       <c r="C15" s="4">
         <v>13311</v>
       </c>
       <c r="D15" s="4">
-        <v>16138</v>
+        <v>16268</v>
       </c>
       <c r="E15" s="4">
-        <v>261388</v>
+        <v>262133</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1786005</v>
+        <v>1796098</v>
       </c>
       <c r="C16" s="4">
-        <v>51903</v>
+        <v>52471</v>
       </c>
       <c r="D16" s="4">
-        <v>189590</v>
+        <v>191316</v>
       </c>
       <c r="E16" s="4">
-        <v>2027498</v>
+        <v>2039885</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5462</v>
+        <v>5475</v>
       </c>
       <c r="C17" s="4">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D17" s="4">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="E17" s="4">
-        <v>6396</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>8600</v>
+        <v>8622</v>
       </c>
       <c r="C19" s="4">
         <v>470</v>
       </c>
       <c r="D19" s="4">
-        <v>4462</v>
+        <v>4467</v>
       </c>
       <c r="E19" s="4">
-        <v>13532</v>
+        <v>13559</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>57685</v>
+        <v>57765</v>
       </c>
       <c r="C20" s="4">
         <v>9843</v>
       </c>
       <c r="D20" s="4">
-        <v>12137</v>
+        <v>12251</v>
       </c>
       <c r="E20" s="4">
-        <v>79665</v>
+        <v>79859</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>305650</v>
+        <v>306612</v>
       </c>
       <c r="C21" s="4">
-        <v>9460</v>
+        <v>9484</v>
       </c>
       <c r="D21" s="4">
-        <v>34310</v>
+        <v>34661</v>
       </c>
       <c r="E21" s="4">
-        <v>349420</v>
+        <v>350757</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>234797</v>
+        <v>235950</v>
       </c>
       <c r="C22" s="4">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="D22" s="4">
-        <v>17276</v>
+        <v>17459</v>
       </c>
       <c r="E22" s="4">
-        <v>257829</v>
+        <v>259166</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8520</v>
+        <v>8523</v>
       </c>
       <c r="C23" s="4">
         <v>113</v>
@@ -1437,7 +1437,7 @@
         <v>1086</v>
       </c>
       <c r="E23" s="4">
-        <v>9719</v>
+        <v>9722</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1451,10 +1451,10 @@
         <v>117</v>
       </c>
       <c r="D24" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>14621</v>
+        <v>14644</v>
       </c>
       <c r="C25" s="4">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D25" s="4">
-        <v>2201</v>
+        <v>2305</v>
       </c>
       <c r="E25" s="4">
-        <v>18204</v>
+        <v>18333</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>16285</v>
+        <v>16298</v>
       </c>
       <c r="C26" s="4">
         <v>788</v>
       </c>
       <c r="D26" s="4">
-        <v>17717</v>
+        <v>17931</v>
       </c>
       <c r="E26" s="4">
-        <v>34790</v>
+        <v>35017</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>13897</v>
+        <v>13974</v>
       </c>
       <c r="C27" s="4">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D27" s="4">
-        <v>2331</v>
+        <v>2351</v>
       </c>
       <c r="E27" s="4">
-        <v>16481</v>
+        <v>16580</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>32118</v>
+        <v>32268</v>
       </c>
       <c r="C28" s="4">
         <v>1096</v>
       </c>
       <c r="D28" s="4">
-        <v>3602</v>
+        <v>3635</v>
       </c>
       <c r="E28" s="4">
-        <v>36816</v>
+        <v>36999</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>31719</v>
+        <v>31888</v>
       </c>
       <c r="C29" s="4">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="D29" s="4">
-        <v>5335</v>
+        <v>5357</v>
       </c>
       <c r="E29" s="4">
-        <v>38633</v>
+        <v>38828</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>13055</v>
+        <v>13104</v>
       </c>
       <c r="C30" s="4">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D30" s="4">
-        <v>4666</v>
+        <v>4671</v>
       </c>
       <c r="E30" s="4">
-        <v>18275</v>
+        <v>18332</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4982</v>
+        <v>4987</v>
       </c>
       <c r="C31" s="4">
         <v>226</v>
       </c>
       <c r="D31" s="4">
-        <v>5183</v>
+        <v>5228</v>
       </c>
       <c r="E31" s="4">
-        <v>10391</v>
+        <v>10441</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>244210</v>
+        <v>244920</v>
       </c>
       <c r="C32" s="4">
-        <v>7783</v>
+        <v>7792</v>
       </c>
       <c r="D32" s="4">
-        <v>50902</v>
+        <v>51383</v>
       </c>
       <c r="E32" s="4">
-        <v>302895</v>
+        <v>304095</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5694</v>
+        <v>5703</v>
       </c>
       <c r="C33" s="4">
         <v>364</v>
       </c>
       <c r="D33" s="4">
-        <v>1760</v>
+        <v>1769</v>
       </c>
       <c r="E33" s="4">
-        <v>7818</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C34" s="4">
         <v>841</v>
       </c>
       <c r="D34" s="4">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E34" s="4">
-        <v>2857</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>11668</v>
+        <v>11715</v>
       </c>
       <c r="C35" s="4">
         <v>3139</v>
       </c>
       <c r="D35" s="4">
-        <v>3665</v>
+        <v>3681</v>
       </c>
       <c r="E35" s="4">
-        <v>18472</v>
+        <v>18535</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3957</v>
+        <v>3963</v>
       </c>
       <c r="C36" s="4">
         <v>260</v>
       </c>
       <c r="D36" s="4">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="E36" s="4">
-        <v>6029</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>7680</v>
+        <v>7702</v>
       </c>
       <c r="C37" s="4">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D37" s="4">
-        <v>1355</v>
+        <v>1365</v>
       </c>
       <c r="E37" s="4">
-        <v>9609</v>
+        <v>9642</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>22460</v>
+        <v>22476</v>
       </c>
       <c r="C38" s="4">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D38" s="4">
-        <v>7800</v>
+        <v>7835</v>
       </c>
       <c r="E38" s="4">
-        <v>31030</v>
+        <v>31083</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="C39" s="4">
         <v>362</v>
       </c>
       <c r="D39" s="4">
-        <v>4305</v>
+        <v>4311</v>
       </c>
       <c r="E39" s="4">
-        <v>7608</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>4002</v>
+        <v>4012</v>
       </c>
       <c r="C40" s="4">
         <v>429</v>
       </c>
       <c r="D40" s="4">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="E40" s="4">
-        <v>5971</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C41" s="4">
         <v>17</v>
       </c>
       <c r="D41" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E41" s="4">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="C42" s="4">
         <v>26</v>
       </c>
       <c r="D42" s="4">
-        <v>1739</v>
+        <v>1746</v>
       </c>
       <c r="E42" s="4">
-        <v>3672</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="C43" s="4">
         <v>88</v>
       </c>
       <c r="D43" s="4">
-        <v>2766</v>
+        <v>2781</v>
       </c>
       <c r="E43" s="4">
-        <v>5860</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>861093</v>
+        <v>863553</v>
       </c>
       <c r="C44" s="4">
-        <v>79496</v>
+        <v>79563</v>
       </c>
       <c r="D44" s="4">
-        <v>95998</v>
+        <v>97142</v>
       </c>
       <c r="E44" s="4">
-        <v>1036587</v>
+        <v>1040258</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,7 +1802,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1060</v>
+        <v>1097</v>
       </c>
       <c r="C45" s="4">
         <v>95</v>
@@ -1811,7 +1811,7 @@
         <v>1396</v>
       </c>
       <c r="E45" s="4">
-        <v>2551</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>11475</v>
+        <v>11488</v>
       </c>
       <c r="C46" s="4">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D46" s="4">
-        <v>3932</v>
+        <v>3940</v>
       </c>
       <c r="E46" s="4">
-        <v>15731</v>
+        <v>15753</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>93547</v>
+        <v>93810</v>
       </c>
       <c r="C47" s="4">
-        <v>7707</v>
+        <v>7793</v>
       </c>
       <c r="D47" s="4">
-        <v>18887</v>
+        <v>19004</v>
       </c>
       <c r="E47" s="4">
-        <v>120141</v>
+        <v>120607</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6347</v>
+        <v>6362</v>
       </c>
       <c r="C48" s="4">
         <v>299</v>
       </c>
       <c r="D48" s="4">
-        <v>2339</v>
+        <v>2350</v>
       </c>
       <c r="E48" s="4">
-        <v>8985</v>
+        <v>9011</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1876,10 +1876,10 @@
         <v>15</v>
       </c>
       <c r="D49" s="4">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E49" s="4">
-        <v>2929</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>22755</v>
+        <v>22830</v>
       </c>
       <c r="C50" s="4">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D50" s="4">
-        <v>4809</v>
+        <v>4854</v>
       </c>
       <c r="E50" s="4">
-        <v>28900</v>
+        <v>29021</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>83248</v>
+        <v>83561</v>
       </c>
       <c r="C51" s="4">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="D51" s="4">
-        <v>3771</v>
+        <v>3863</v>
       </c>
       <c r="E51" s="4">
-        <v>89186</v>
+        <v>89592</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C52" s="4">
         <v>43</v>
       </c>
       <c r="D52" s="4">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E52" s="4">
-        <v>1451</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="C53" s="4">
         <v>67</v>
       </c>
       <c r="D53" s="4">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="E53" s="4">
-        <v>5531</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>17</v>
       </c>
       <c r="D54" s="4">
-        <v>1885</v>
+        <v>1892</v>
       </c>
       <c r="E54" s="4">
-        <v>2849</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1978,10 +1978,10 @@
         <v>23</v>
       </c>
       <c r="D55" s="4">
-        <v>1542</v>
+        <v>1549</v>
       </c>
       <c r="E55" s="4">
-        <v>3996</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2129</v>
+        <v>2134</v>
       </c>
       <c r="C56" s="4">
         <v>14</v>
@@ -1998,7 +1998,7 @@
         <v>144</v>
       </c>
       <c r="E56" s="4">
-        <v>2287</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="C57" s="4">
         <v>310</v>
       </c>
       <c r="D57" s="4">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="E57" s="4">
-        <v>3168</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2190602</v>
+        <v>2196825</v>
       </c>
       <c r="C58" s="4">
-        <v>130322</v>
+        <v>130461</v>
       </c>
       <c r="D58" s="4">
-        <v>199813</v>
+        <v>202157</v>
       </c>
       <c r="E58" s="4">
-        <v>2520737</v>
+        <v>2529443</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2046,10 +2046,10 @@
         <v>450</v>
       </c>
       <c r="D59" s="4">
-        <v>2222</v>
+        <v>2248</v>
       </c>
       <c r="E59" s="4">
-        <v>10318</v>
+        <v>10344</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>8760</v>
+        <v>8786</v>
       </c>
       <c r="C60" s="4">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D60" s="4">
-        <v>2334</v>
+        <v>2347</v>
       </c>
       <c r="E60" s="4">
-        <v>11361</v>
+        <v>11404</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4635</v>
+        <v>4642</v>
       </c>
       <c r="C61" s="4">
         <v>835</v>
       </c>
       <c r="D61" s="4">
-        <v>2253</v>
+        <v>2261</v>
       </c>
       <c r="E61" s="4">
-        <v>7723</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="C62" s="4">
         <v>226</v>
       </c>
       <c r="D62" s="4">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E62" s="4">
-        <v>2937</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>537761</v>
+        <v>539089</v>
       </c>
       <c r="C63" s="4">
-        <v>58518</v>
+        <v>58588</v>
       </c>
       <c r="D63" s="4">
-        <v>85181</v>
+        <v>86582</v>
       </c>
       <c r="E63" s="4">
-        <v>681460</v>
+        <v>684259</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>11550</v>
+        <v>11615</v>
       </c>
       <c r="C65" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D65" s="4">
-        <v>2874</v>
+        <v>3124</v>
       </c>
       <c r="E65" s="4">
-        <v>14525</v>
+        <v>14841</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="C66" s="4">
         <v>387</v>
       </c>
       <c r="D66" s="4">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="E66" s="4">
-        <v>2288</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>16752</v>
+        <v>16771</v>
       </c>
       <c r="C67" s="4">
-        <v>2385</v>
+        <v>2391</v>
       </c>
       <c r="D67" s="4">
-        <v>2311</v>
+        <v>2324</v>
       </c>
       <c r="E67" s="4">
-        <v>21448</v>
+        <v>21486</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4601</v>
+        <v>4614</v>
       </c>
       <c r="C68" s="4">
         <v>350</v>
       </c>
       <c r="D68" s="4">
-        <v>3543</v>
+        <v>3561</v>
       </c>
       <c r="E68" s="4">
-        <v>8494</v>
+        <v>8525</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>57014</v>
+        <v>57217</v>
       </c>
       <c r="C69" s="4">
-        <v>4689</v>
+        <v>4698</v>
       </c>
       <c r="D69" s="4">
-        <v>18390</v>
+        <v>18429</v>
       </c>
       <c r="E69" s="4">
-        <v>80093</v>
+        <v>80344</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="C70" s="4">
         <v>30</v>
@@ -2236,7 +2236,7 @@
         <v>332</v>
       </c>
       <c r="E70" s="4">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>829929</v>
+        <v>832460</v>
       </c>
       <c r="C71" s="4">
-        <v>16586</v>
+        <v>16595</v>
       </c>
       <c r="D71" s="4">
-        <v>232030</v>
+        <v>233260</v>
       </c>
       <c r="E71" s="4">
-        <v>1078545</v>
+        <v>1082315</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>156537</v>
+        <v>156937</v>
       </c>
       <c r="C72" s="4">
         <v>7006</v>
       </c>
       <c r="D72" s="4">
-        <v>15157</v>
+        <v>15286</v>
       </c>
       <c r="E72" s="4">
-        <v>178700</v>
+        <v>179229</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>17463</v>
+        <v>17603</v>
       </c>
       <c r="C73" s="4">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D73" s="4">
-        <v>6558</v>
+        <v>6570</v>
       </c>
       <c r="E73" s="4">
-        <v>25149</v>
+        <v>25302</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>12009</v>
+        <v>12061</v>
       </c>
       <c r="C74" s="4">
         <v>411</v>
       </c>
       <c r="D74" s="4">
-        <v>3054</v>
+        <v>3080</v>
       </c>
       <c r="E74" s="4">
-        <v>15474</v>
+        <v>15552</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>24834</v>
+        <v>24888</v>
       </c>
       <c r="C75" s="4">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D75" s="4">
-        <v>4470</v>
+        <v>4516</v>
       </c>
       <c r="E75" s="4">
-        <v>30108</v>
+        <v>30209</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>13728</v>
+        <v>13803</v>
       </c>
       <c r="C76" s="4">
         <v>433</v>
       </c>
       <c r="D76" s="4">
-        <v>2317</v>
+        <v>2341</v>
       </c>
       <c r="E76" s="4">
-        <v>16478</v>
+        <v>16577</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C77" s="4">
         <v>29</v>
       </c>
       <c r="D77" s="4">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E77" s="4">
-        <v>1652</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2281</v>
+        <v>2294</v>
       </c>
       <c r="C78" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D78" s="4">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E78" s="4">
-        <v>2736</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C79" s="4">
         <v>99</v>
@@ -2389,7 +2389,7 @@
         <v>703</v>
       </c>
       <c r="E79" s="4">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>616596</v>
+        <v>618197</v>
       </c>
       <c r="C80" s="4">
-        <v>22787</v>
+        <v>22814</v>
       </c>
       <c r="D80" s="4">
-        <v>41181</v>
+        <v>41713</v>
       </c>
       <c r="E80" s="4">
-        <v>680564</v>
+        <v>682724</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>4259</v>
+        <v>4268</v>
       </c>
       <c r="C81" s="4">
         <v>477</v>
       </c>
       <c r="D81" s="4">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="E81" s="4">
-        <v>5483</v>
+        <v>5497</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>13636</v>
+        <v>13652</v>
       </c>
       <c r="C82" s="4">
         <v>669</v>
       </c>
       <c r="D82" s="4">
-        <v>5172</v>
+        <v>5239</v>
       </c>
       <c r="E82" s="4">
-        <v>19477</v>
+        <v>19560</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>16310</v>
+        <v>16329</v>
       </c>
       <c r="C83" s="4">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="D83" s="4">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="E83" s="4">
-        <v>17644</v>
+        <v>17701</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3263</v>
+        <v>3266</v>
       </c>
       <c r="C84" s="4">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D84" s="4">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E84" s="4">
-        <v>4364</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>326747</v>
+        <v>327785</v>
       </c>
       <c r="C85" s="4">
-        <v>9895</v>
+        <v>9977</v>
       </c>
       <c r="D85" s="4">
-        <v>27444</v>
+        <v>27749</v>
       </c>
       <c r="E85" s="4">
-        <v>364086</v>
+        <v>365511</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C86" s="4">
         <v>50</v>
       </c>
       <c r="D86" s="4">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="E86" s="4">
-        <v>3247</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>15143</v>
+        <v>15163</v>
       </c>
       <c r="C87" s="4">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D87" s="4">
-        <v>3494</v>
+        <v>3518</v>
       </c>
       <c r="E87" s="4">
-        <v>19045</v>
+        <v>19091</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2597</v>
+        <v>2603</v>
       </c>
       <c r="C89" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D89" s="4">
-        <v>1777</v>
+        <v>1783</v>
       </c>
       <c r="E89" s="4">
-        <v>4540</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>12209</v>
+        <v>12232</v>
       </c>
       <c r="C90" s="4">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D90" s="4">
-        <v>4149</v>
+        <v>4159</v>
       </c>
       <c r="E90" s="4">
-        <v>16719</v>
+        <v>16754</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>7488</v>
+        <v>7502</v>
       </c>
       <c r="C91" s="4">
         <v>923</v>
       </c>
       <c r="D91" s="4">
-        <v>2257</v>
+        <v>2276</v>
       </c>
       <c r="E91" s="4">
-        <v>10668</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>99375</v>
+        <v>99585</v>
       </c>
       <c r="C92" s="4">
-        <v>3912</v>
+        <v>3915</v>
       </c>
       <c r="D92" s="4">
-        <v>12725</v>
+        <v>13004</v>
       </c>
       <c r="E92" s="4">
-        <v>116012</v>
+        <v>116504</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>46423</v>
+        <v>46464</v>
       </c>
       <c r="C93" s="4">
-        <v>10266</v>
+        <v>10274</v>
       </c>
       <c r="D93" s="4">
-        <v>14657</v>
+        <v>14715</v>
       </c>
       <c r="E93" s="4">
-        <v>71346</v>
+        <v>71453</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>28709</v>
+        <v>28758</v>
       </c>
       <c r="C94" s="4">
         <v>515</v>
       </c>
       <c r="D94" s="4">
-        <v>2469</v>
+        <v>2505</v>
       </c>
       <c r="E94" s="4">
-        <v>31693</v>
+        <v>31778</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>74916</v>
+        <v>75163</v>
       </c>
       <c r="C95" s="4">
-        <v>3732</v>
+        <v>3773</v>
       </c>
       <c r="D95" s="4">
-        <v>15308</v>
+        <v>15412</v>
       </c>
       <c r="E95" s="4">
-        <v>93956</v>
+        <v>94348</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>13657</v>
+        <v>13745</v>
       </c>
       <c r="C96" s="4">
         <v>297</v>
       </c>
       <c r="D96" s="4">
-        <v>2285</v>
+        <v>2306</v>
       </c>
       <c r="E96" s="4">
-        <v>16239</v>
+        <v>16348</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1156</v>
+        <v>1163</v>
       </c>
       <c r="C97" s="4">
         <v>43</v>
       </c>
       <c r="D97" s="4">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="E97" s="4">
-        <v>3282</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>5061</v>
+        <v>5105</v>
       </c>
       <c r="C98" s="4">
         <v>312</v>
       </c>
       <c r="D98" s="4">
-        <v>1244</v>
+        <v>1253</v>
       </c>
       <c r="E98" s="4">
-        <v>6617</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C99" s="4">
         <v>616</v>
       </c>
       <c r="D99" s="4">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="E99" s="4">
-        <v>3638</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C100" s="4">
         <v>218</v>
       </c>
       <c r="D100" s="4">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E100" s="4">
-        <v>2649</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>19879</v>
+        <v>19957</v>
       </c>
       <c r="C101" s="4">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="D101" s="4">
-        <v>7014</v>
+        <v>7123</v>
       </c>
       <c r="E101" s="4">
-        <v>30135</v>
+        <v>30323</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3785246</v>
+        <v>3797006</v>
       </c>
       <c r="C102" s="4">
-        <v>136808</v>
+        <v>137049</v>
       </c>
       <c r="D102" s="4">
-        <v>321276</v>
+        <v>325494</v>
       </c>
       <c r="E102" s="4">
-        <v>4243330</v>
+        <v>4259549</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>56678</v>
+        <v>56755</v>
       </c>
       <c r="C103" s="4">
-        <v>7657</v>
+        <v>7667</v>
       </c>
       <c r="D103" s="4">
-        <v>8530</v>
+        <v>8564</v>
       </c>
       <c r="E103" s="4">
-        <v>72865</v>
+        <v>72986</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C105" s="4">
         <v>35</v>
       </c>
       <c r="D105" s="4">
-        <v>1404</v>
+        <v>1414</v>
       </c>
       <c r="E105" s="4">
-        <v>2648</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>224354</v>
+        <v>225518</v>
       </c>
       <c r="C106" s="4">
-        <v>10438</v>
+        <v>10457</v>
       </c>
       <c r="D106" s="4">
-        <v>16416</v>
+        <v>16601</v>
       </c>
       <c r="E106" s="4">
-        <v>251208</v>
+        <v>252576</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,7 +2856,7 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C107" s="4">
         <v>399</v>
@@ -2865,7 +2865,7 @@
         <v>113</v>
       </c>
       <c r="E107" s="4">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>25554</v>
+        <v>25596</v>
       </c>
       <c r="C108" s="4">
-        <v>2187</v>
+        <v>2191</v>
       </c>
       <c r="D108" s="4">
-        <v>8045</v>
+        <v>8108</v>
       </c>
       <c r="E108" s="4">
-        <v>35786</v>
+        <v>35895</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>425498</v>
+        <v>426949</v>
       </c>
       <c r="C109" s="4">
-        <v>15180</v>
+        <v>15204</v>
       </c>
       <c r="D109" s="4">
-        <v>134026</v>
+        <v>135819</v>
       </c>
       <c r="E109" s="4">
-        <v>574704</v>
+        <v>577972</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>31506</v>
+        <v>31636</v>
       </c>
       <c r="C110" s="4">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="D110" s="4">
-        <v>5874</v>
+        <v>5899</v>
       </c>
       <c r="E110" s="4">
-        <v>38356</v>
+        <v>38515</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>7678</v>
+        <v>7685</v>
       </c>
       <c r="C111" s="4">
         <v>83</v>
       </c>
       <c r="D111" s="4">
-        <v>3110</v>
+        <v>3120</v>
       </c>
       <c r="E111" s="4">
-        <v>10871</v>
+        <v>10888</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>33480</v>
+        <v>33575</v>
       </c>
       <c r="C112" s="4">
         <v>2370</v>
       </c>
       <c r="D112" s="4">
-        <v>18551</v>
+        <v>18621</v>
       </c>
       <c r="E112" s="4">
-        <v>54401</v>
+        <v>54566</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>16331</v>
+        <v>16374</v>
       </c>
       <c r="C113" s="4">
         <v>1859</v>
       </c>
       <c r="D113" s="4">
-        <v>3185</v>
+        <v>3198</v>
       </c>
       <c r="E113" s="4">
-        <v>21375</v>
+        <v>21431</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>14604</v>
+        <v>14625</v>
       </c>
       <c r="C114" s="4">
         <v>362</v>
       </c>
       <c r="D114" s="4">
-        <v>3058</v>
+        <v>3074</v>
       </c>
       <c r="E114" s="4">
-        <v>18024</v>
+        <v>18061</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>15995</v>
+        <v>15997</v>
       </c>
       <c r="C115" s="4">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D115" s="4">
-        <v>4154</v>
+        <v>4165</v>
       </c>
       <c r="E115" s="4">
-        <v>20635</v>
+        <v>20649</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2443</v>
+        <v>2447</v>
       </c>
       <c r="C116" s="4">
         <v>32</v>
       </c>
       <c r="D116" s="4">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="E116" s="4">
-        <v>3518</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>73121</v>
+        <v>73307</v>
       </c>
       <c r="C117" s="4">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="D117" s="4">
-        <v>9859</v>
+        <v>9947</v>
       </c>
       <c r="E117" s="4">
-        <v>86640</v>
+        <v>86917</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>8245</v>
+        <v>8253</v>
       </c>
       <c r="C118" s="4">
         <v>1291</v>
       </c>
       <c r="D118" s="4">
-        <v>3631</v>
+        <v>3643</v>
       </c>
       <c r="E118" s="4">
-        <v>13167</v>
+        <v>13187</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1774</v>
+        <v>1781</v>
       </c>
       <c r="C120" s="4">
         <v>193</v>
       </c>
       <c r="D120" s="4">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E120" s="4">
-        <v>2317</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6777</v>
+        <v>6788</v>
       </c>
       <c r="C121" s="4">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D121" s="4">
-        <v>1716</v>
+        <v>1722</v>
       </c>
       <c r="E121" s="4">
-        <v>8672</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>13187</v>
+        <v>13217</v>
       </c>
       <c r="C122" s="4">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="D122" s="4">
-        <v>3827</v>
+        <v>3865</v>
       </c>
       <c r="E122" s="4">
-        <v>19577</v>
+        <v>19646</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C123" s="4">
         <v>42</v>
       </c>
       <c r="D123" s="4">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E123" s="4">
-        <v>2075</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>154109</v>
+        <v>154429</v>
       </c>
       <c r="C124" s="4">
-        <v>12293</v>
+        <v>12302</v>
       </c>
       <c r="D124" s="4">
-        <v>34507</v>
+        <v>34778</v>
       </c>
       <c r="E124" s="4">
-        <v>200909</v>
+        <v>201509</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>13271</v>
+        <v>13278</v>
       </c>
       <c r="C125" s="4">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D125" s="4">
-        <v>3328</v>
+        <v>3339</v>
       </c>
       <c r="E125" s="4">
-        <v>17135</v>
+        <v>17155</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>45648</v>
+        <v>45695</v>
       </c>
       <c r="C126" s="4">
-        <v>7692</v>
+        <v>7715</v>
       </c>
       <c r="D126" s="4">
-        <v>14689</v>
+        <v>14773</v>
       </c>
       <c r="E126" s="4">
-        <v>68029</v>
+        <v>68183</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>111254</v>
+        <v>111555</v>
       </c>
       <c r="C127" s="4">
-        <v>6531</v>
+        <v>6534</v>
       </c>
       <c r="D127" s="4">
-        <v>15789</v>
+        <v>15888</v>
       </c>
       <c r="E127" s="4">
-        <v>133574</v>
+        <v>133977</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5729</v>
+        <v>5738</v>
       </c>
       <c r="C128" s="4">
         <v>196</v>
       </c>
       <c r="D128" s="4">
-        <v>2965</v>
+        <v>2996</v>
       </c>
       <c r="E128" s="4">
-        <v>8890</v>
+        <v>8930</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>13595</v>
+        <v>13643</v>
       </c>
       <c r="C129" s="4">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D129" s="4">
-        <v>4738</v>
+        <v>4813</v>
       </c>
       <c r="E129" s="4">
-        <v>18787</v>
+        <v>18913</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>97934</v>
+        <v>98210</v>
       </c>
       <c r="C130" s="4">
-        <v>5144</v>
+        <v>5150</v>
       </c>
       <c r="D130" s="4">
-        <v>16714</v>
+        <v>16870</v>
       </c>
       <c r="E130" s="4">
-        <v>119792</v>
+        <v>120230</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>22135</v>
+        <v>22222</v>
       </c>
       <c r="C131" s="4">
-        <v>1552</v>
+        <v>1567</v>
       </c>
       <c r="D131" s="4">
-        <v>8126</v>
+        <v>8166</v>
       </c>
       <c r="E131" s="4">
-        <v>31813</v>
+        <v>31955</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C132" s="4">
         <v>35</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="E132" s="4">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E133" s="4">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>30016</v>
+        <v>30048</v>
       </c>
       <c r="C134" s="4">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D134" s="4">
-        <v>18706</v>
+        <v>18823</v>
       </c>
       <c r="E134" s="4">
-        <v>49565</v>
+        <v>49717</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1557</v>
+        <v>1564</v>
       </c>
       <c r="C135" s="4">
         <v>39</v>
       </c>
       <c r="D135" s="4">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E135" s="4">
-        <v>1943</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="C137" s="4">
         <v>43</v>
       </c>
       <c r="D137" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E137" s="4">
-        <v>2212</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>25504</v>
+        <v>25618</v>
       </c>
       <c r="C138" s="4">
-        <v>4351</v>
+        <v>4362</v>
       </c>
       <c r="D138" s="4">
-        <v>6575</v>
+        <v>6606</v>
       </c>
       <c r="E138" s="4">
-        <v>36430</v>
+        <v>36586</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C139" s="4">
         <v>41</v>
       </c>
       <c r="D139" s="4">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="E139" s="4">
-        <v>3163</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6955</v>
+        <v>6964</v>
       </c>
       <c r="C140" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D140" s="4">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="E140" s="4">
-        <v>7578</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>21391</v>
+        <v>21495</v>
       </c>
       <c r="C141" s="4">
-        <v>2255</v>
+        <v>2265</v>
       </c>
       <c r="D141" s="4">
-        <v>3928</v>
+        <v>3961</v>
       </c>
       <c r="E141" s="4">
-        <v>27574</v>
+        <v>27721</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5410</v>
+        <v>5415</v>
       </c>
       <c r="C142" s="4">
         <v>90</v>
       </c>
       <c r="D142" s="4">
-        <v>4607</v>
+        <v>4612</v>
       </c>
       <c r="E142" s="4">
-        <v>10107</v>
+        <v>10117</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>15860</v>
+        <v>15920</v>
       </c>
       <c r="C143" s="4">
         <v>621</v>
       </c>
       <c r="D143" s="4">
-        <v>3435</v>
+        <v>3454</v>
       </c>
       <c r="E143" s="4">
-        <v>19916</v>
+        <v>19995</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>11184</v>
+        <v>11213</v>
       </c>
       <c r="C144" s="4">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D144" s="4">
-        <v>2884</v>
+        <v>2907</v>
       </c>
       <c r="E144" s="4">
-        <v>14622</v>
+        <v>14675</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7667</v>
+        <v>7677</v>
       </c>
       <c r="C145" s="4">
         <v>219</v>
       </c>
       <c r="D145" s="4">
-        <v>2839</v>
+        <v>2871</v>
       </c>
       <c r="E145" s="4">
-        <v>10725</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>9105</v>
+        <v>9122</v>
       </c>
       <c r="C146" s="4">
         <v>489</v>
       </c>
       <c r="D146" s="4">
-        <v>1878</v>
+        <v>1898</v>
       </c>
       <c r="E146" s="4">
-        <v>11472</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>49818</v>
+        <v>49950</v>
       </c>
       <c r="C147" s="4">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="D147" s="4">
-        <v>5982</v>
+        <v>6057</v>
       </c>
       <c r="E147" s="4">
-        <v>58793</v>
+        <v>59001</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>28767</v>
+        <v>28783</v>
       </c>
       <c r="C148" s="4">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D148" s="4">
-        <v>7828</v>
+        <v>7966</v>
       </c>
       <c r="E148" s="4">
-        <v>37191</v>
+        <v>37346</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C149" s="4">
         <v>191</v>
       </c>
       <c r="D149" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E149" s="4">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>5059</v>
+        <v>5067</v>
       </c>
       <c r="C150" s="4">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D150" s="4">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="E150" s="4">
-        <v>6737</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>10108</v>
+        <v>10146</v>
       </c>
       <c r="C151" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D151" s="4">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="E151" s="4">
-        <v>11928</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>191484</v>
+        <v>191917</v>
       </c>
       <c r="C153" s="4">
-        <v>6452</v>
+        <v>6458</v>
       </c>
       <c r="D153" s="4">
-        <v>90145</v>
+        <v>90469</v>
       </c>
       <c r="E153" s="4">
-        <v>288081</v>
+        <v>288844</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="C154" s="4">
         <v>97</v>
       </c>
       <c r="D154" s="4">
-        <v>1943</v>
+        <v>1985</v>
       </c>
       <c r="E154" s="4">
-        <v>4883</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>11924</v>
+        <v>11946</v>
       </c>
       <c r="C155" s="4">
         <v>169</v>
       </c>
       <c r="D155" s="4">
-        <v>2079</v>
+        <v>2086</v>
       </c>
       <c r="E155" s="4">
-        <v>14172</v>
+        <v>14201</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="C156" s="4">
         <v>787</v>
       </c>
       <c r="D156" s="4">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="E156" s="4">
-        <v>4721</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C157" s="4">
         <v>129</v>
       </c>
       <c r="D157" s="4">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="E157" s="4">
-        <v>1862</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3729,10 +3729,10 @@
         <v>59</v>
       </c>
       <c r="D158" s="4">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E158" s="4">
-        <v>2314</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>30356</v>
+        <v>30414</v>
       </c>
       <c r="C159" s="4">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D159" s="4">
-        <v>2311</v>
+        <v>2332</v>
       </c>
       <c r="E159" s="4">
-        <v>33375</v>
+        <v>33457</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>55684</v>
+        <v>55755</v>
       </c>
       <c r="C160" s="4">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D160" s="4">
-        <v>7237</v>
+        <v>7247</v>
       </c>
       <c r="E160" s="4">
-        <v>63309</v>
+        <v>63393</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="C161" s="4">
         <v>43</v>
       </c>
       <c r="D161" s="4">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="E161" s="4">
-        <v>3541</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>221880</v>
+        <v>222606</v>
       </c>
       <c r="C162" s="4">
-        <v>9735</v>
+        <v>9743</v>
       </c>
       <c r="D162" s="4">
-        <v>49050</v>
+        <v>49298</v>
       </c>
       <c r="E162" s="4">
-        <v>280665</v>
+        <v>281647</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C163" s="4">
         <v>47</v>
@@ -3817,7 +3817,7 @@
         <v>58</v>
       </c>
       <c r="E163" s="4">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>26921</v>
+        <v>27039</v>
       </c>
       <c r="C164" s="4">
-        <v>1208</v>
+        <v>1232</v>
       </c>
       <c r="D164" s="4">
-        <v>4873</v>
+        <v>4904</v>
       </c>
       <c r="E164" s="4">
-        <v>33002</v>
+        <v>33175</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C165" s="4">
         <v>21</v>
       </c>
       <c r="D165" s="4">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E165" s="4">
-        <v>2325</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>43948</v>
+        <v>44105</v>
       </c>
       <c r="C166" s="4">
-        <v>5811</v>
+        <v>5826</v>
       </c>
       <c r="D166" s="4">
-        <v>37449</v>
+        <v>37585</v>
       </c>
       <c r="E166" s="4">
-        <v>87208</v>
+        <v>87516</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>15591</v>
+        <v>15618</v>
       </c>
       <c r="C167" s="4">
         <v>871</v>
       </c>
       <c r="D167" s="4">
-        <v>5924</v>
+        <v>5946</v>
       </c>
       <c r="E167" s="4">
-        <v>22386</v>
+        <v>22435</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>4243</v>
+        <v>4325</v>
       </c>
       <c r="C168" s="4">
         <v>89</v>
       </c>
       <c r="D168" s="4">
-        <v>1309</v>
+        <v>1319</v>
       </c>
       <c r="E168" s="4">
-        <v>5641</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="C169" s="4">
         <v>51</v>
       </c>
       <c r="D169" s="4">
-        <v>2458</v>
+        <v>2471</v>
       </c>
       <c r="E169" s="4">
-        <v>7179</v>
+        <v>7193</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>10055</v>
+        <v>10080</v>
       </c>
       <c r="C170" s="4">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D170" s="4">
-        <v>2880</v>
+        <v>2902</v>
       </c>
       <c r="E170" s="4">
-        <v>13790</v>
+        <v>13838</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>344253</v>
+        <v>345466</v>
       </c>
       <c r="C171" s="4">
-        <v>16895</v>
+        <v>16912</v>
       </c>
       <c r="D171" s="4">
-        <v>42259</v>
+        <v>42781</v>
       </c>
       <c r="E171" s="4">
-        <v>403407</v>
+        <v>405159</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>7297</v>
+        <v>7307</v>
       </c>
       <c r="C172" s="4">
         <v>833</v>
       </c>
       <c r="D172" s="4">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="E172" s="4">
-        <v>9796</v>
+        <v>9814</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>5384</v>
+        <v>5392</v>
       </c>
       <c r="C173" s="4">
         <v>685</v>
       </c>
       <c r="D173" s="4">
-        <v>3997</v>
+        <v>4000</v>
       </c>
       <c r="E173" s="4">
-        <v>10066</v>
+        <v>10077</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>39637</v>
+        <v>39773</v>
       </c>
       <c r="C175" s="4">
         <v>1171</v>
       </c>
       <c r="D175" s="4">
-        <v>6851</v>
+        <v>6869</v>
       </c>
       <c r="E175" s="4">
-        <v>47659</v>
+        <v>47813</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>24738</v>
+        <v>24764</v>
       </c>
       <c r="C176" s="4">
         <v>1581</v>
       </c>
       <c r="D176" s="4">
-        <v>8494</v>
+        <v>8547</v>
       </c>
       <c r="E176" s="4">
-        <v>34813</v>
+        <v>34892</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3428</v>
+        <v>3437</v>
       </c>
       <c r="C177" s="4">
         <v>764</v>
       </c>
       <c r="D177" s="4">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="E177" s="4">
-        <v>6190</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>8555</v>
+        <v>8557</v>
       </c>
       <c r="C178" s="4">
         <v>147</v>
       </c>
       <c r="D178" s="4">
-        <v>2982</v>
+        <v>2999</v>
       </c>
       <c r="E178" s="4">
-        <v>11684</v>
+        <v>11703</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>204227</v>
+        <v>204692</v>
       </c>
       <c r="C179" s="4">
-        <v>40729</v>
+        <v>40826</v>
       </c>
       <c r="D179" s="4">
-        <v>50367</v>
+        <v>50763</v>
       </c>
       <c r="E179" s="4">
-        <v>295323</v>
+        <v>296281</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4103,10 +4103,10 @@
         <v>272</v>
       </c>
       <c r="D180" s="4">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E180" s="4">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4120,10 +4120,10 @@
         <v>269</v>
       </c>
       <c r="D181" s="4">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E181" s="4">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>27765</v>
+        <v>27883</v>
       </c>
       <c r="C182" s="4">
-        <v>5410</v>
+        <v>5416</v>
       </c>
       <c r="D182" s="4">
-        <v>10446</v>
+        <v>10548</v>
       </c>
       <c r="E182" s="4">
-        <v>43621</v>
+        <v>43847</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>12844</v>
+        <v>12871</v>
       </c>
       <c r="C183" s="4">
         <v>919</v>
       </c>
       <c r="D183" s="4">
-        <v>4939</v>
+        <v>4969</v>
       </c>
       <c r="E183" s="4">
-        <v>18702</v>
+        <v>18759</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>8709</v>
+        <v>8716</v>
       </c>
       <c r="C184" s="4">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D184" s="4">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="E184" s="4">
-        <v>12936</v>
+        <v>12947</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>65942</v>
+        <v>66148</v>
       </c>
       <c r="C185" s="4">
-        <v>5846</v>
+        <v>5852</v>
       </c>
       <c r="D185" s="4">
-        <v>17074</v>
+        <v>17194</v>
       </c>
       <c r="E185" s="4">
-        <v>88862</v>
+        <v>89194</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="C186" s="4">
         <v>232</v>
       </c>
       <c r="D186" s="4">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E186" s="4">
-        <v>3331</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>9747</v>
+        <v>9844</v>
       </c>
       <c r="C187" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D187" s="4">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="E187" s="4">
-        <v>10862</v>
+        <v>10969</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>33607</v>
+        <v>33665</v>
       </c>
       <c r="C188" s="4">
         <v>1180</v>
       </c>
       <c r="D188" s="4">
-        <v>5785</v>
+        <v>5821</v>
       </c>
       <c r="E188" s="4">
-        <v>40572</v>
+        <v>40666</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>70040</v>
+        <v>70161</v>
       </c>
       <c r="C189" s="4">
         <v>6983</v>
       </c>
       <c r="D189" s="4">
-        <v>11537</v>
+        <v>11709</v>
       </c>
       <c r="E189" s="4">
-        <v>88560</v>
+        <v>88853</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7316</v>
+        <v>7318</v>
       </c>
       <c r="C190" s="4">
         <v>37</v>
       </c>
       <c r="D190" s="4">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E190" s="4">
-        <v>8659</v>
+        <v>8666</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2705</v>
+        <v>2714</v>
       </c>
       <c r="C191" s="4">
         <v>387</v>
       </c>
       <c r="D191" s="4">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E191" s="4">
-        <v>3774</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>45484</v>
+        <v>45567</v>
       </c>
       <c r="C192" s="4">
         <v>14208</v>
       </c>
       <c r="D192" s="4">
-        <v>11337</v>
+        <v>11436</v>
       </c>
       <c r="E192" s="4">
-        <v>71029</v>
+        <v>71211</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4321,13 +4321,13 @@
         <v>890</v>
       </c>
       <c r="C193" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D193" s="4">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E193" s="4">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="C194" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D194" s="4">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E194" s="4">
-        <v>2381</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5746</v>
+        <v>5797</v>
       </c>
       <c r="C195" s="4">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D195" s="4">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E195" s="4">
-        <v>8074</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>6486</v>
+        <v>6496</v>
       </c>
       <c r="C196" s="4">
         <v>160</v>
       </c>
       <c r="D196" s="4">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="E196" s="4">
-        <v>7507</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3831</v>
+        <v>3837</v>
       </c>
       <c r="C197" s="4">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D197" s="4">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="E197" s="4">
-        <v>7400</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4409,10 +4409,10 @@
         <v>65</v>
       </c>
       <c r="D198" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E198" s="4">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>11101</v>
+        <v>11126</v>
       </c>
       <c r="C199" s="4">
         <v>277</v>
       </c>
       <c r="D199" s="4">
-        <v>6673</v>
+        <v>6679</v>
       </c>
       <c r="E199" s="4">
-        <v>18051</v>
+        <v>18082</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>69835</v>
+        <v>70024</v>
       </c>
       <c r="C200" s="4">
-        <v>5128</v>
+        <v>5136</v>
       </c>
       <c r="D200" s="4">
-        <v>5210</v>
+        <v>5253</v>
       </c>
       <c r="E200" s="4">
-        <v>80173</v>
+        <v>80413</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4460,10 +4460,10 @@
         <v>149</v>
       </c>
       <c r="D201" s="4">
-        <v>2795</v>
+        <v>2802</v>
       </c>
       <c r="E201" s="4">
-        <v>8544</v>
+        <v>8551</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>17760</v>
+        <v>17776</v>
       </c>
       <c r="C202" s="4">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="D202" s="4">
-        <v>2469</v>
+        <v>2493</v>
       </c>
       <c r="E202" s="4">
-        <v>22216</v>
+        <v>22258</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5808</v>
+        <v>5813</v>
       </c>
       <c r="C203" s="4">
         <v>382</v>
       </c>
       <c r="D203" s="4">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E203" s="4">
-        <v>8208</v>
+        <v>8217</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>5410</v>
+        <v>5415</v>
       </c>
       <c r="C204" s="4">
         <v>74</v>
       </c>
       <c r="D204" s="4">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="E204" s="4">
-        <v>8034</v>
+        <v>8041</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>16068</v>
+        <v>16136</v>
       </c>
       <c r="C205" s="4">
         <v>1445</v>
       </c>
       <c r="D205" s="4">
-        <v>3189</v>
+        <v>3244</v>
       </c>
       <c r="E205" s="4">
-        <v>20702</v>
+        <v>20825</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>28292</v>
+        <v>28359</v>
       </c>
       <c r="C206" s="4">
-        <v>7486</v>
+        <v>7504</v>
       </c>
       <c r="D206" s="4">
-        <v>15702</v>
+        <v>15842</v>
       </c>
       <c r="E206" s="4">
-        <v>51480</v>
+        <v>51705</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2727</v>
+        <v>2739</v>
       </c>
       <c r="C207" s="4">
         <v>80</v>
       </c>
       <c r="D207" s="4">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E207" s="4">
-        <v>4842</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>16111</v>
+        <v>16113</v>
       </c>
       <c r="C209" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D209" s="4">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="E209" s="4">
-        <v>17044</v>
+        <v>17059</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C210" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D210" s="4">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E210" s="4">
-        <v>1271</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>11224</v>
+        <v>11283</v>
       </c>
       <c r="C211" s="4">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D211" s="4">
-        <v>3150</v>
+        <v>3168</v>
       </c>
       <c r="E211" s="4">
-        <v>14836</v>
+        <v>14914</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4647,10 +4647,10 @@
         <v>122</v>
       </c>
       <c r="D212" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E212" s="4">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>167268</v>
+        <v>167516</v>
       </c>
       <c r="C213" s="4">
-        <v>9147</v>
+        <v>9149</v>
       </c>
       <c r="D213" s="4">
-        <v>22212</v>
+        <v>22357</v>
       </c>
       <c r="E213" s="4">
-        <v>198627</v>
+        <v>199022</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3969</v>
+        <v>3978</v>
       </c>
       <c r="C214" s="4">
         <v>372</v>
       </c>
       <c r="D214" s="4">
-        <v>3993</v>
+        <v>3997</v>
       </c>
       <c r="E214" s="4">
-        <v>8334</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>48034</v>
+        <v>48109</v>
       </c>
       <c r="C215" s="4">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D215" s="4">
-        <v>11112</v>
+        <v>11193</v>
       </c>
       <c r="E215" s="4">
-        <v>59719</v>
+        <v>59878</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2744</v>
+        <v>2746</v>
       </c>
       <c r="C216" s="4">
         <v>130</v>
       </c>
       <c r="D216" s="4">
-        <v>1915</v>
+        <v>1970</v>
       </c>
       <c r="E216" s="4">
-        <v>4789</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4732,10 +4732,10 @@
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E217" s="4">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E218" s="4">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4766,10 +4766,10 @@
         <v>28</v>
       </c>
       <c r="D219" s="4">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E219" s="4">
-        <v>1938</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3785</v>
+        <v>3792</v>
       </c>
       <c r="C220" s="4">
         <v>286</v>
       </c>
       <c r="D220" s="4">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="E220" s="4">
-        <v>4866</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1531783</v>
+        <v>1536377</v>
       </c>
       <c r="C221" s="4">
-        <v>88432</v>
+        <v>88493</v>
       </c>
       <c r="D221" s="4">
-        <v>183869</v>
+        <v>185412</v>
       </c>
       <c r="E221" s="4">
-        <v>1804084</v>
+        <v>1810282</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>80902</v>
+        <v>81027</v>
       </c>
       <c r="C222" s="4">
-        <v>3268</v>
+        <v>3271</v>
       </c>
       <c r="D222" s="4">
-        <v>47364</v>
+        <v>48045</v>
       </c>
       <c r="E222" s="4">
-        <v>131534</v>
+        <v>132343</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3236</v>
+        <v>3241</v>
       </c>
       <c r="C224" s="4">
         <v>108</v>
       </c>
       <c r="D224" s="4">
-        <v>1152</v>
+        <v>1176</v>
       </c>
       <c r="E224" s="4">
-        <v>4496</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>27</v>
       </c>
       <c r="D225" s="4">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E225" s="4">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>21737</v>
+        <v>21797</v>
       </c>
       <c r="C226" s="4">
         <v>1123</v>
       </c>
       <c r="D226" s="4">
-        <v>3606</v>
+        <v>3616</v>
       </c>
       <c r="E226" s="4">
-        <v>26466</v>
+        <v>26536</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>71348</v>
+        <v>71416</v>
       </c>
       <c r="C227" s="4">
-        <v>1567</v>
+        <v>1574</v>
       </c>
       <c r="D227" s="4">
-        <v>40262</v>
+        <v>40370</v>
       </c>
       <c r="E227" s="4">
-        <v>113177</v>
+        <v>113360</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>948291</v>
+        <v>952081</v>
       </c>
       <c r="C228" s="4">
-        <v>40447</v>
+        <v>40508</v>
       </c>
       <c r="D228" s="4">
-        <v>136045</v>
+        <v>137474</v>
       </c>
       <c r="E228" s="4">
-        <v>1124783</v>
+        <v>1130063</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>10338</v>
+        <v>10370</v>
       </c>
       <c r="C229" s="4">
         <v>235</v>
       </c>
       <c r="D229" s="4">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="E229" s="4">
-        <v>13232</v>
+        <v>13274</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>8643</v>
+        <v>8650</v>
       </c>
       <c r="C230" s="4">
         <v>866</v>
       </c>
       <c r="D230" s="4">
-        <v>4335</v>
+        <v>4358</v>
       </c>
       <c r="E230" s="4">
-        <v>13844</v>
+        <v>13874</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>10289</v>
+        <v>10327</v>
       </c>
       <c r="C231" s="4">
         <v>2006</v>
       </c>
       <c r="D231" s="4">
-        <v>3342</v>
+        <v>3353</v>
       </c>
       <c r="E231" s="4">
-        <v>15637</v>
+        <v>15686</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C232" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D232" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="E232" s="4">
-        <v>2884</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>23453</v>
+        <v>23497</v>
       </c>
       <c r="C233" s="4">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D233" s="4">
-        <v>1537</v>
+        <v>1556</v>
       </c>
       <c r="E233" s="4">
-        <v>25385</v>
+        <v>25449</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>41137</v>
+        <v>41207</v>
       </c>
       <c r="C234" s="4">
         <v>1198</v>
       </c>
       <c r="D234" s="4">
-        <v>10515</v>
+        <v>10575</v>
       </c>
       <c r="E234" s="4">
-        <v>52850</v>
+        <v>52980</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>17849</v>
+        <v>17883</v>
       </c>
       <c r="C235" s="4">
         <v>1792</v>
       </c>
       <c r="D235" s="4">
-        <v>6525</v>
+        <v>6577</v>
       </c>
       <c r="E235" s="4">
-        <v>26166</v>
+        <v>26252</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>37939</v>
+        <v>38040</v>
       </c>
       <c r="C236" s="4">
-        <v>1883</v>
+        <v>1923</v>
       </c>
       <c r="D236" s="4">
-        <v>13894</v>
+        <v>13957</v>
       </c>
       <c r="E236" s="4">
-        <v>53716</v>
+        <v>53920</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>96247</v>
+        <v>96652</v>
       </c>
       <c r="C237" s="4">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="D237" s="4">
-        <v>10582</v>
+        <v>10920</v>
       </c>
       <c r="E237" s="4">
-        <v>108027</v>
+        <v>108777</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>31218</v>
+        <v>31413</v>
       </c>
       <c r="C238" s="4">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D238" s="4">
-        <v>3265</v>
+        <v>3303</v>
       </c>
       <c r="E238" s="4">
-        <v>35289</v>
+        <v>35527</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4297</v>
+        <v>4322</v>
       </c>
       <c r="C239" s="4">
         <v>150</v>
       </c>
       <c r="D239" s="4">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E239" s="4">
-        <v>4874</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>35139</v>
+        <v>35224</v>
       </c>
       <c r="C240" s="4">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D240" s="4">
-        <v>6716</v>
+        <v>6738</v>
       </c>
       <c r="E240" s="4">
-        <v>42466</v>
+        <v>42574</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>340375</v>
+        <v>341101</v>
       </c>
       <c r="C241" s="4">
-        <v>4415</v>
+        <v>4427</v>
       </c>
       <c r="D241" s="4">
-        <v>51701</v>
+        <v>52272</v>
       </c>
       <c r="E241" s="4">
-        <v>396491</v>
+        <v>397800</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>29844</v>
+        <v>29945</v>
       </c>
       <c r="C242" s="4">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D242" s="4">
-        <v>3081</v>
+        <v>3114</v>
       </c>
       <c r="E242" s="4">
-        <v>33744</v>
+        <v>33882</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="C243" s="4">
         <v>349</v>
       </c>
       <c r="D243" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="E243" s="4">
-        <v>3853</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>101490</v>
+        <v>101601</v>
       </c>
       <c r="C244" s="4">
         <v>6078</v>
       </c>
       <c r="D244" s="4">
-        <v>20753</v>
+        <v>20830</v>
       </c>
       <c r="E244" s="4">
-        <v>128321</v>
+        <v>128509</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>11616</v>
+        <v>11648</v>
       </c>
       <c r="C245" s="4">
         <v>564</v>
       </c>
       <c r="D245" s="4">
-        <v>4115</v>
+        <v>4117</v>
       </c>
       <c r="E245" s="4">
-        <v>16295</v>
+        <v>16329</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>23078</v>
+        <v>23136</v>
       </c>
       <c r="C246" s="4">
         <v>175</v>
       </c>
       <c r="D246" s="4">
-        <v>1863</v>
+        <v>1894</v>
       </c>
       <c r="E246" s="4">
-        <v>25116</v>
+        <v>25205</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>400339</v>
+        <v>401931</v>
       </c>
       <c r="C247" s="4">
-        <v>14541</v>
+        <v>14558</v>
       </c>
       <c r="D247" s="4">
-        <v>60885</v>
+        <v>61633</v>
       </c>
       <c r="E247" s="4">
-        <v>475765</v>
+        <v>478122</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>30609</v>
+        <v>30689</v>
       </c>
       <c r="C248" s="4">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="D248" s="4">
-        <v>6743</v>
+        <v>6775</v>
       </c>
       <c r="E248" s="4">
-        <v>38404</v>
+        <v>38528</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C249" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D249" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E249" s="4">
-        <v>1244</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>44102</v>
+        <v>44265</v>
       </c>
       <c r="C250" s="4">
         <v>3107</v>
       </c>
       <c r="D250" s="4">
-        <v>5640</v>
+        <v>5723</v>
       </c>
       <c r="E250" s="4">
-        <v>52849</v>
+        <v>53095</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>15776</v>
+        <v>15829</v>
       </c>
       <c r="C251" s="4">
-        <v>1782</v>
+        <v>1788</v>
       </c>
       <c r="D251" s="4">
-        <v>3717</v>
+        <v>3742</v>
       </c>
       <c r="E251" s="4">
-        <v>21275</v>
+        <v>21359</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,7 +5321,7 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="C252" s="4">
         <v>105</v>
@@ -5330,7 +5330,7 @@
         <v>499</v>
       </c>
       <c r="E252" s="4">
-        <v>2795</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6658</v>
+        <v>6668</v>
       </c>
       <c r="C253" s="4">
         <v>547</v>
       </c>
       <c r="D253" s="4">
-        <v>1736</v>
+        <v>1748</v>
       </c>
       <c r="E253" s="4">
-        <v>8941</v>
+        <v>8963</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>15758</v>
+        <v>15783</v>
       </c>
       <c r="C254" s="4">
         <v>128</v>
       </c>
       <c r="D254" s="4">
-        <v>4605</v>
+        <v>4620</v>
       </c>
       <c r="E254" s="4">
-        <v>20491</v>
+        <v>20531</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>9251</v>
+        <v>9263</v>
       </c>
       <c r="C255" s="4">
         <v>235</v>
       </c>
       <c r="D255" s="4">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="E255" s="4">
-        <v>10198</v>
+        <v>10216</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>137189</v>
+        <v>137293</v>
       </c>
       <c r="C256" s="4">
-        <v>11980</v>
+        <v>12291</v>
       </c>
       <c r="D256" s="4">
-        <v>5680</v>
+        <v>5824</v>
       </c>
       <c r="E256" s="4">
-        <v>154849</v>
+        <v>155408</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>21242085</v>
+        <v>21310773</v>
       </c>
       <c r="C257" s="4">
-        <v>1088493</v>
+        <v>1090914</v>
       </c>
       <c r="D257" s="4">
-        <v>3206026</v>
+        <v>3235918</v>
       </c>
       <c r="E257" s="4">
-        <v>25536604</v>
+        <v>25637605</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
